--- a/Assignment S3a/Manual Backpropagation.xlsx
+++ b/Assignment S3a/Manual Backpropagation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bbf70c4a68a3d94/Documents/EVA8/Assignment S3a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{AD5280A8-436B-4F4C-8FCA-6F1F60FF7FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB29EBB-AB9D-4D14-8B2E-BDF01C6380DD}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{AD5280A8-436B-4F4C-8FCA-6F1F60FF7FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464CF5B4-6732-4460-B287-34C5F89BF8F9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9E7FA45D-F498-45A5-A8B9-8A0F6356C27A}"/>
   </bookViews>
@@ -475,11 +475,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -487,8 +490,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,17 +529,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9737,8 +9737,8 @@
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2940050" cy="425450"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="TextBox 60">
@@ -9809,7 +9809,14 @@
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>01</m:t>
+                          <m:t>𝑜</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -10017,7 +10024,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="TextBox 60">
@@ -10072,7 +10079,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>01/𝜕𝑤5=(𝜕(</a:t>
+                <a:t>𝑜1/𝜕𝑤5=(𝜕(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -10080,7 +10087,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15877,6 +15884,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5BE8D98-5241-480D-99F4-181076171E8F}" name="Table1" displayName="Table1" ref="A15:AE100" totalsRowShown="0">
   <autoFilter ref="A15:AE100" xr:uid="{B5BE8D98-5241-480D-99F4-181076171E8F}"/>
@@ -16254,7 +16265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882C5498-D486-4CCE-B857-56F846D4B141}">
   <dimension ref="A4:Q93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16262,205 +16275,205 @@
   </cols>
   <sheetData>
     <row r="4" spans="13:17" x14ac:dyDescent="0.35">
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M9" s="2">
         <v>5</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M10" s="2">
         <v>6</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M11" s="2">
         <v>7</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M12" s="2">
         <v>8</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M13" s="2">
         <v>9</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M14" s="2">
         <v>10</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M15" s="2">
         <v>11</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>1</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
@@ -16469,11 +16482,11 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16"/>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
@@ -16491,11 +16504,11 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="26" spans="1:16" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
@@ -16522,31 +16535,31 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
@@ -16567,54 +16580,54 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="26"/>
     </row>
     <row r="33" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
     </row>
     <row r="34" spans="1:16" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>10</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="16"/>
     </row>
     <row r="35" spans="1:16" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
@@ -16641,11 +16654,11 @@
       <c r="A38" s="6">
         <v>14</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="16"/>
     </row>
     <row r="39" spans="1:16" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
@@ -16675,31 +16688,31 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="12" t="s">
+      <c r="N41" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="13"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="31"/>
     </row>
     <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="20"/>
     </row>
     <row r="43" spans="1:16" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
@@ -16805,6 +16818,16 @@
     <row r="93" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N38:P38"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="N23:P23"/>
     <mergeCell ref="N25:P25"/>
@@ -16819,16 +16842,6 @@
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N38:P38"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A20:P20"/>
   </mergeCells>
